--- a/PythonEnvironment/resources/mutations.xlsx
+++ b/PythonEnvironment/resources/mutations.xlsx
@@ -30,12 +30,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Gen</t>
-  </si>
-  <si>
-    <t>E,X,W</t>
-  </si>
-  <si>
-    <t>F,X,F,E,F,W</t>
   </si>
   <si>
     <t>Notes</t>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>Very good variance, levels look simple as well</t>
+  </si>
+  <si>
+    <t>Agent evets are long</t>
+  </si>
+  <si>
+    <t>Keep tile mutation probabilities constant, but skew at beginning based on what author desires</t>
   </si>
 </sst>
 </file>
@@ -171,7 +171,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Fitness Over Many Generations</a:t>
+              <a:t> Fitness Over Many Generations for Events F, W (Eat Food then Win)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -263,10 +263,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -416,166 +416,16 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:f>Sheet1!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.401515151515151</c:v>
                 </c:pt>
@@ -771,10 +621,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -924,166 +774,16 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$101</c:f>
+              <c:f>Sheet1!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
@@ -1279,10 +979,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -1432,166 +1132,16 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$101</c:f>
+              <c:f>Sheet1!$D$2:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
@@ -1741,156 +1291,6 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.783333333333333</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.813636363636363</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.886363636363636</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.909090909090909</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.886363636363636</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.881818181818181</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.886363636363636</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.795454545454545</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.795454545454545</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.836363636363636</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.627272727272727</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.813636363636363</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.836363636363636</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.84090909090909</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.813636363636363</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.84090909090909</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.84090909090909</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.781818181818181</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.781818181818182</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.759090909090909</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.736363636363636</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.818181818181818</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.84090909090909</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.863636363636363</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.909090909090909</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.818181818181818</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.777272727272727</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.759090909090909</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.827272727272727</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.818181818181818</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.722727272727272</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.818181818181818</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.69090909090909</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.759090909090909</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.831818181818181</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.772727272727272</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.84090909090909</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.813636363636363</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.836363636363636</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.772727272727272</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.809090909090909</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.759090909090909</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.786363636363636</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.836363636363636</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.731818181818181</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.795454545454545</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,10 +1337,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2090,166 +1490,16 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$101</c:f>
+              <c:f>Sheet1!$E$2:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
@@ -2414,7 +1664,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E,X,W</c:v>
+                  <c:v>Const</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2445,10 +1695,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2598,888 +1848,166 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$101</c:f>
+              <c:f>Sheet1!$F$2:$F$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>Const</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>0.466666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>0.466666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>0.466666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>0.683333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>0.433333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>0.566666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>0.516666666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>0.633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>0.516666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>0.466666666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>0.533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.0</c:v>
+                  <c:v>0.516666666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.0</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.0</c:v>
+                  <c:v>0.633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.0</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.0</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.0</c:v>
+                  <c:v>0.183333333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.0</c:v>
+                  <c:v>0.283333333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.0</c:v>
+                  <c:v>0.533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.0</c:v>
+                  <c:v>0.466666666666666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.0</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.0</c:v>
+                  <c:v>0.233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.0</c:v>
+                  <c:v>0.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.0</c:v>
+                  <c:v>0.466666666666666</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.0</c:v>
+                  <c:v>0.466666666666666</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.0</c:v>
+                  <c:v>0.366666666666666</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.0</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.0</c:v>
+                  <c:v>0.533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.0</c:v>
+                  <c:v>0.433333333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.0</c:v>
+                  <c:v>0.316666666666666</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.0</c:v>
+                  <c:v>0.549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>0.566666666666666</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.0</c:v>
+                  <c:v>0.566666666666666</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.0</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.0</c:v>
+                  <c:v>0.533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45.0</c:v>
+                  <c:v>0.616666666666666</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.0</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.0</c:v>
+                  <c:v>0.533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48.0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F,X,F,E,F,W</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                  <c:v>0.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4662,41 +3190,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4712,8 +3234,11 @@
       <c r="E2">
         <v>0.483333333333333</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0.483333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4729,8 +3254,11 @@
       <c r="E3">
         <v>0.56666666666666599</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0.53333333333333299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4746,8 +3274,11 @@
       <c r="E4">
         <v>0.53333333333333299</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0.46666666666666601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4763,8 +3294,11 @@
       <c r="E5">
         <v>0.58333333333333304</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0.46666666666666601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4780,8 +3314,11 @@
       <c r="E6">
         <v>0.58333333333333304</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0.46666666666666601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4797,8 +3334,11 @@
       <c r="E7">
         <v>0.46666666666666601</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0.68333333333333302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4814,8 +3354,11 @@
       <c r="E8">
         <v>0.38333333333333303</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0.43333333333333302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4831,8 +3374,11 @@
       <c r="E9">
         <v>0.61666666666666603</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4848,8 +3394,11 @@
       <c r="E10">
         <v>0.56666666666666599</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4865,8 +3414,11 @@
       <c r="E11">
         <v>0.83333333333333304</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0.56666666666666599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4882,8 +3434,11 @@
       <c r="E12">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0.51666666666666605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4899,8 +3454,11 @@
       <c r="E13">
         <v>0.76666666666666605</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0.63333333333333297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4916,8 +3474,11 @@
       <c r="E14">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0.51666666666666605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4933,8 +3494,11 @@
       <c r="E15">
         <v>0.64999999999999902</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4950,8 +3514,11 @@
       <c r="E16">
         <v>0.76666666666666605</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0.46666666666666601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4967,8 +3534,11 @@
       <c r="E17">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0.53333333333333299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4984,8 +3554,11 @@
       <c r="E18">
         <v>0.76666666666666605</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5001,8 +3574,11 @@
       <c r="E19">
         <v>0.83333333333333304</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0.51666666666666605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5018,8 +3594,11 @@
       <c r="E20">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5035,8 +3614,11 @@
       <c r="E21">
         <v>0.86666666666666603</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0.63333333333333297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5052,8 +3634,11 @@
       <c r="E22">
         <v>0.86666666666666603</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>0.483333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5069,8 +3654,11 @@
       <c r="E23">
         <v>0.81666666666666599</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5086,8 +3674,11 @@
       <c r="E24">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5103,8 +3694,11 @@
       <c r="E25">
         <v>0.86666666666666603</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0.18333333333333299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5120,8 +3714,11 @@
       <c r="E26">
         <v>0.83333333333333304</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>0.28333333333333299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5137,8 +3734,11 @@
       <c r="E27">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>0.53333333333333299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5154,8 +3754,11 @@
       <c r="E28">
         <v>0.78333333333333299</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>0.46666666666666601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5171,8 +3774,11 @@
       <c r="E29">
         <v>0.76666666666666605</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5188,8 +3794,11 @@
       <c r="E30">
         <v>0.88333333333333297</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>0.233333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5205,8 +3814,11 @@
       <c r="E31">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>0.41666666666666602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5222,8 +3834,11 @@
       <c r="E32">
         <v>0.86666666666666603</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>0.46666666666666601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5239,8 +3854,11 @@
       <c r="E33">
         <v>0.88333333333333297</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>0.46666666666666601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5256,8 +3874,11 @@
       <c r="E34">
         <v>0.78333333333333299</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>0.36666666666666597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5273,8 +3894,11 @@
       <c r="E35">
         <v>0.81666666666666599</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5290,8 +3914,11 @@
       <c r="E36">
         <v>0.73333333333333295</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>0.53333333333333299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5307,8 +3934,11 @@
       <c r="E37">
         <v>0.91666666666666596</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5324,8 +3954,11 @@
       <c r="E38">
         <v>0.73333333333333295</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>0.43333333333333302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5341,8 +3974,11 @@
       <c r="E39">
         <v>0.81666666666666599</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>0.31666666666666599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5358,8 +3994,11 @@
       <c r="E40">
         <v>0.91666666666666596</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5375,8 +4014,11 @@
       <c r="E41">
         <v>0.91666666666666596</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>0.54999999999999905</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5392,8 +4034,11 @@
       <c r="E42">
         <v>0.91666666666666596</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>0.56666666666666599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5409,8 +4054,11 @@
       <c r="E43">
         <v>0.96666666666666601</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>0.56666666666666599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5426,8 +4074,11 @@
       <c r="E44">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5443,8 +4094,11 @@
       <c r="E45">
         <v>0.88333333333333297</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5460,8 +4114,11 @@
       <c r="E46">
         <v>0.76666666666666605</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>0.53333333333333299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5477,8 +4134,11 @@
       <c r="E47">
         <v>0.86666666666666603</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>0.61666666666666603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5494,8 +4154,11 @@
       <c r="E48">
         <v>0.83333333333333304</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5511,8 +4174,11 @@
       <c r="E49">
         <v>0.91666666666666596</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>0.53333333333333299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5528,8 +4194,11 @@
       <c r="E50">
         <v>0.79999999999999905</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5545,439 +4214,48 @@
       <c r="E51">
         <v>0.81666666666666599</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="D52">
-        <v>0.81363636363636305</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="D53">
-        <v>0.88636363636363602</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="D54">
-        <v>0.90909090909090895</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="D55">
-        <v>0.88636363636363602</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="D56">
-        <v>0.88181818181818095</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="D57">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="D58">
-        <v>0.88636363636363602</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="D59">
-        <v>0.79545454545454497</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="D60">
-        <v>0.79545454545454497</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="D61">
-        <v>0.83636363636363598</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="D62">
-        <v>0.62727272727272698</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="D63">
-        <v>0.81363636363636305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="D64">
-        <v>0.83636363636363598</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="D65">
-        <v>0.84090909090909005</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="D66">
-        <v>0.81363636363636305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="D67">
-        <v>0.72727272727272696</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="D68">
-        <v>0.84090909090909005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="D69">
-        <v>0.84090909090909005</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="D70">
-        <v>0.78181818181818097</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="D71">
-        <v>0.78181818181818197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="D72">
-        <v>0.75909090909090904</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="D73">
-        <v>0.736363636363636</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="D74">
-        <v>0.81818181818181801</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="D75">
-        <v>0.84090909090909005</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="D76">
-        <v>0.86363636363636298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="D77">
-        <v>0.90909090909090895</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="D78">
-        <v>0.81818181818181801</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="D79">
-        <v>0.777272727272727</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="D80">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="D81">
-        <v>0.75909090909090904</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="D82">
-        <v>0.82727272727272705</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="D83">
-        <v>0.81818181818181801</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="D84">
-        <v>0.722727272727272</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="D85">
-        <v>0.81818181818181801</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="D86">
-        <v>0.69090909090909003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="D87">
-        <v>0.75909090909090904</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="D88">
-        <v>0.83181818181818101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="D89">
-        <v>0.77272727272727204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="D90">
-        <v>0.84090909090909005</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="D91">
-        <v>0.81363636363636305</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="D92">
-        <v>0.72727272727272696</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="D93">
-        <v>0.83636363636363598</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="D94">
-        <v>0.77272727272727204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="D95">
-        <v>0.80909090909090897</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="D96">
-        <v>0.75909090909090904</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="D97">
-        <v>0.78636363636363604</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="D98">
-        <v>0.83636363636363598</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="D99">
-        <v>0.73181818181818103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="D100">
-        <v>0.79545454545454497</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="D101">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="F51">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="C102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="E53" t="s">
         <v>10</v>
       </c>
-      <c r="E102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="F53" t="s">
         <v>16</v>
-      </c>
-      <c r="D103" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/PythonEnvironment/resources/mutations.xlsx
+++ b/PythonEnvironment/resources/mutations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelprobst/Desktop/thesis/Scavenger/PythonEnvironment/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_Thesis\Scavenger\PythonEnvironment\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6877F6CA-7A80-4B80-81CD-B31FCA380729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="700" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +39,6 @@
     <t>Const</t>
   </si>
   <si>
-    <t>NeedMutate</t>
-  </si>
-  <si>
     <t>good levels, little variance</t>
   </si>
   <si>
@@ -62,16 +60,7 @@
     <t>High mutation probability. Same strategy as NeedMutate</t>
   </si>
   <si>
-    <t>LRU</t>
-  </si>
-  <si>
     <t>Least Recently Used. mutate based on what events are desired. Reduce prob of tile that was recently mutated to, increase others.</t>
-  </si>
-  <si>
-    <t>NoSelfMutate</t>
-  </si>
-  <si>
-    <t>LRU + Don’t allow tile to mutate into itself.</t>
   </si>
   <si>
     <t>Very good variance, levels look simple as well</t>
@@ -82,11 +71,23 @@
   <si>
     <t>Keep tile mutation probabilities constant, but skew at beginning based on what author desires</t>
   </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>RWU</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>RWU + MM Don’t allow tile to mutate into itself.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -128,12 +129,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -177,7 +181,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -214,9 +217,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0697706752869817"/>
+          <c:x val="6.9770675286981707E-2"/>
           <c:y val="0.111036263111729"/>
-          <c:w val="0.792962730622963"/>
+          <c:w val="0.79296273062296296"/>
           <c:h val="0.773254861969355"/>
         </c:manualLayout>
       </c:layout>
@@ -232,7 +235,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LRU</c:v>
+                  <c:v>AN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -268,154 +271,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,159 +430,164 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.401515151515151</c:v>
+                  <c:v>0.40151515151515099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.348484848484848</c:v>
+                  <c:v>0.34848484848484801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.477272727272727</c:v>
+                  <c:v>0.47727272727272702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.401515151515151</c:v>
+                  <c:v>0.40151515151515099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.522727272727272</c:v>
+                  <c:v>0.52272727272727204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.568181818181818</c:v>
+                  <c:v>0.56818181818181801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.522727272727272</c:v>
+                  <c:v>0.52272727272727204</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.454545454545454</c:v>
+                  <c:v>0.45454545454545398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.431818181818181</c:v>
+                  <c:v>0.43181818181818099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.462121212121212</c:v>
+                  <c:v>0.46212121212121199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.575757575757575</c:v>
+                  <c:v>0.57575757575757502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.674242424242424</c:v>
+                  <c:v>0.67424242424242398</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.719696969696969</c:v>
+                  <c:v>0.71969696969696895</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.772727272727272</c:v>
+                  <c:v>0.77272727272727204</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.613636363636363</c:v>
+                  <c:v>0.61363636363636298</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.674242424242424</c:v>
+                  <c:v>0.67424242424242398</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.674242424242424</c:v>
+                  <c:v>0.67424242424242398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.636363636363636</c:v>
+                  <c:v>0.63636363636363602</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.636363636363636</c:v>
+                  <c:v>0.63636363636363602</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.651515151515151</c:v>
+                  <c:v>0.65151515151515105</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.545454545454545</c:v>
+                  <c:v>0.54545454545454497</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.727272727272727</c:v>
+                  <c:v>0.72727272727272696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.795454545454545</c:v>
+                  <c:v>0.79545454545454497</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.681818181818181</c:v>
+                  <c:v>0.68181818181818099</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.742424242424242</c:v>
+                  <c:v>0.74242424242424199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.712121212121212</c:v>
+                  <c:v>0.71212121212121204</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.636363636363636</c:v>
+                  <c:v>0.63636363636363602</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.674242424242424</c:v>
+                  <c:v>0.67424242424242398</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.696969696969696</c:v>
+                  <c:v>0.69696969696969602</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.537878787878787</c:v>
+                  <c:v>0.53787878787878696</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.522727272727272</c:v>
+                  <c:v>0.52272727272727204</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.484848484848484</c:v>
+                  <c:v>0.48484848484848397</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.575757575757575</c:v>
+                  <c:v>0.57575757575757502</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.613636363636363</c:v>
+                  <c:v>0.61363636363636298</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.53030303030303</c:v>
+                  <c:v>0.53030303030303005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.568181818181818</c:v>
+                  <c:v>0.56818181818181801</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.613636363636363</c:v>
+                  <c:v>0.61363636363636298</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.515151515151515</c:v>
+                  <c:v>0.51515151515151503</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.643939393939393</c:v>
+                  <c:v>0.64393939393939303</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.545454545454545</c:v>
+                  <c:v>0.54545454545454497</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.575757575757575</c:v>
+                  <c:v>0.57575757575757502</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.484848484848484</c:v>
+                  <c:v>0.48484848484848397</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.613636363636363</c:v>
+                  <c:v>0.61363636363636298</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.56060606060606</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.681818181818181</c:v>
+                  <c:v>0.68181818181818099</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.765151515151515</c:v>
+                  <c:v>0.76515151515151503</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.696969696969697</c:v>
+                  <c:v>0.69696969696969702</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.636363636363636</c:v>
+                  <c:v>0.63636363636363602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34E1-4A86-BB4E-3659B33EE1F8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -590,7 +598,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NoSelfMutate</c:v>
+                  <c:v>RWU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -626,154 +634,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,13 +796,13 @@
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.63333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.73333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.7</c:v>
@@ -803,7 +811,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.783333333333333</c:v>
+                  <c:v>0.78333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.9</c:v>
@@ -812,40 +820,40 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.866666666666666</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.966666666666666</c:v>
+                  <c:v>0.96666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.866666666666666</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.983333333333333</c:v>
+                  <c:v>0.98333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.916666666666666</c:v>
+                  <c:v>0.91666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.816666666666666</c:v>
+                  <c:v>0.81666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.649999999999999</c:v>
+                  <c:v>0.64999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.9</c:v>
@@ -857,7 +865,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.816666666666666</c:v>
+                  <c:v>0.81666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.9</c:v>
@@ -866,19 +874,19 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.933333333333333</c:v>
+                  <c:v>0.93333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.866666666666666</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.916666666666666</c:v>
+                  <c:v>0.91666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.883333333333333</c:v>
+                  <c:v>0.88333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.85</c:v>
@@ -887,7 +895,7 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.9</c:v>
@@ -899,37 +907,37 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.983333333333333</c:v>
+                  <c:v>0.98333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.916666666666666</c:v>
+                  <c:v>0.91666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.883333333333333</c:v>
+                  <c:v>0.88333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.966666666666666</c:v>
+                  <c:v>0.96666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.916666666666666</c:v>
+                  <c:v>0.91666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.983333333333333</c:v>
+                  <c:v>0.98333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.983333333333333</c:v>
+                  <c:v>0.98333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.916666666666666</c:v>
+                  <c:v>0.91666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.866666666666666</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.85</c:v>
@@ -938,6 +946,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34E1-4A86-BB4E-3659B33EE1F8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -948,7 +961,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NeedMutate</c:v>
+                  <c:v>Need</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -984,154 +997,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1149,25 +1162,25 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.666666666666666</c:v>
+                  <c:v>0.66666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.516666666666666</c:v>
+                  <c:v>0.51666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.516666666666666</c:v>
+                  <c:v>0.51666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.683333333333333</c:v>
+                  <c:v>0.68333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.5</c:v>
@@ -1176,28 +1189,28 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.666666666666666</c:v>
+                  <c:v>0.66666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.716666666666666</c:v>
+                  <c:v>0.71666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.683333333333333</c:v>
+                  <c:v>0.68333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.816666666666666</c:v>
+                  <c:v>0.81666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.816666666666666</c:v>
+                  <c:v>0.81666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.85</c:v>
@@ -1209,93 +1222,98 @@
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.666666666666666</c:v>
+                  <c:v>0.66666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.916666666666666</c:v>
+                  <c:v>0.91666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.816666666666666</c:v>
+                  <c:v>0.81666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.783333333333333</c:v>
+                  <c:v>0.78333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.73333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.766666666666666</c:v>
+                  <c:v>0.76666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.466666666666666</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.43333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.63333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.866666666666666</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.666666666666666</c:v>
+                  <c:v>0.66666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.716666666666666</c:v>
+                  <c:v>0.71666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.649999999999999</c:v>
+                  <c:v>0.64999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.683333333333333</c:v>
+                  <c:v>0.68333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.683333333333333</c:v>
+                  <c:v>0.68333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.783333333333333</c:v>
+                  <c:v>0.78333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.766666666666666</c:v>
+                  <c:v>0.76666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.916666666666666</c:v>
+                  <c:v>0.91666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.783333333333333</c:v>
+                  <c:v>0.78333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.766666666666666</c:v>
+                  <c:v>0.76666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.783333333333333</c:v>
+                  <c:v>0.78333333333333299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-34E1-4A86-BB4E-3659B33EE1F8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1342,154 +1360,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,156 +1522,161 @@
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.466666666666666</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.383333333333333</c:v>
+                  <c:v>0.38333333333333303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.616666666666666</c:v>
+                  <c:v>0.61666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.766666666666666</c:v>
+                  <c:v>0.76666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.649999999999999</c:v>
+                  <c:v>0.64999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.766666666666666</c:v>
+                  <c:v>0.76666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.766666666666666</c:v>
+                  <c:v>0.76666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.866666666666666</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.866666666666666</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.816666666666666</c:v>
+                  <c:v>0.81666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.866666666666666</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.783333333333333</c:v>
+                  <c:v>0.78333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.766666666666666</c:v>
+                  <c:v>0.76666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.883333333333333</c:v>
+                  <c:v>0.88333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.866666666666666</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.883333333333333</c:v>
+                  <c:v>0.88333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.783333333333333</c:v>
+                  <c:v>0.78333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.816666666666666</c:v>
+                  <c:v>0.81666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.73333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.916666666666666</c:v>
+                  <c:v>0.91666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.73333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.816666666666666</c:v>
+                  <c:v>0.81666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.916666666666666</c:v>
+                  <c:v>0.91666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.916666666666666</c:v>
+                  <c:v>0.91666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.916666666666666</c:v>
+                  <c:v>0.91666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.966666666666666</c:v>
+                  <c:v>0.96666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.883333333333333</c:v>
+                  <c:v>0.88333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.766666666666666</c:v>
+                  <c:v>0.76666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.866666666666666</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.916666666666666</c:v>
+                  <c:v>0.91666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.799999999999999</c:v>
+                  <c:v>0.79999999999999905</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.816666666666666</c:v>
+                  <c:v>0.81666666666666599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-34E1-4A86-BB4E-3659B33EE1F8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1700,154 +1723,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,22 +1885,22 @@
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.466666666666666</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.466666666666666</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.466666666666666</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.683333333333333</c:v>
+                  <c:v>0.68333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.43333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.45</c:v>
@@ -1886,58 +1909,58 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.516666666666666</c:v>
+                  <c:v>0.51666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.63333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.516666666666666</c:v>
+                  <c:v>0.51666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.466666666666666</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.516666666666666</c:v>
+                  <c:v>0.51666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.63333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.333333333333333</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.183333333333333</c:v>
+                  <c:v>0.18333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.283333333333333</c:v>
+                  <c:v>0.28333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.466666666666666</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.35</c:v>
@@ -1946,61 +1969,61 @@
                   <c:v>0.233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.416666666666666</c:v>
+                  <c:v>0.41666666666666602</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.466666666666666</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.466666666666666</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.366666666666666</c:v>
+                  <c:v>0.36666666666666597</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.43333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.316666666666666</c:v>
+                  <c:v>0.31666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.549999999999999</c:v>
+                  <c:v>0.54999999999999905</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.616666666666666</c:v>
+                  <c:v>0.61666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.533333333333333</c:v>
+                  <c:v>0.53333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.6</c:v>
@@ -2012,6 +2035,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-34E1-4A86-BB4E-3659B33EE1F8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2028,7 +2056,7 @@
         <c:axId val="1540889808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2072,7 +2100,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2102,6 +2129,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2146,6 +2174,7 @@
         <c:axId val="1540891584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2189,7 +2218,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2219,6 +2247,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2269,7 +2298,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2909,7 +2937,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3189,36 +3223,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3238,7 +3272,7 @@
         <v>0.483333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3258,7 +3292,7 @@
         <v>0.53333333333333299</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3278,7 +3312,7 @@
         <v>0.46666666666666601</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3298,7 +3332,7 @@
         <v>0.46666666666666601</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3318,7 +3352,7 @@
         <v>0.46666666666666601</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3338,7 +3372,7 @@
         <v>0.68333333333333302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3358,7 +3392,7 @@
         <v>0.43333333333333302</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3378,7 +3412,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3398,7 +3432,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3418,7 +3452,7 @@
         <v>0.56666666666666599</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3438,7 +3472,7 @@
         <v>0.51666666666666605</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3458,7 +3492,7 @@
         <v>0.63333333333333297</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3478,7 +3512,7 @@
         <v>0.51666666666666605</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3498,7 +3532,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3518,7 +3552,7 @@
         <v>0.46666666666666601</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3538,7 +3572,7 @@
         <v>0.53333333333333299</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3558,7 +3592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3578,7 +3612,7 @@
         <v>0.51666666666666605</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3598,7 +3632,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3618,7 +3652,7 @@
         <v>0.63333333333333297</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3638,7 +3672,7 @@
         <v>0.483333333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3658,7 +3692,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3678,7 +3712,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3698,7 +3732,7 @@
         <v>0.18333333333333299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3718,7 +3752,7 @@
         <v>0.28333333333333299</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3738,7 +3772,7 @@
         <v>0.53333333333333299</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3758,7 +3792,7 @@
         <v>0.46666666666666601</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3778,7 +3812,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3798,7 +3832,7 @@
         <v>0.233333333333333</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3818,7 +3852,7 @@
         <v>0.41666666666666602</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3838,7 +3872,7 @@
         <v>0.46666666666666601</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3858,7 +3892,7 @@
         <v>0.46666666666666601</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3878,7 +3912,7 @@
         <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3898,7 +3932,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3918,7 +3952,7 @@
         <v>0.53333333333333299</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3938,7 +3972,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3958,7 +3992,7 @@
         <v>0.43333333333333302</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3978,7 +4012,7 @@
         <v>0.31666666666666599</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3998,7 +4032,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4018,7 +4052,7 @@
         <v>0.54999999999999905</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4038,7 +4072,7 @@
         <v>0.56666666666666599</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4058,7 +4092,7 @@
         <v>0.56666666666666599</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4078,7 +4112,7 @@
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4098,7 +4132,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4118,7 +4152,7 @@
         <v>0.53333333333333299</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4138,7 +4172,7 @@
         <v>0.61666666666666603</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4158,7 +4192,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4178,7 +4212,7 @@
         <v>0.53333333333333299</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4198,7 +4232,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4218,44 +4252,44 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>4</v>
       </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="D53" t="s">
         <v>5</v>
       </c>
-      <c r="B53" t="s">
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
         <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PythonEnvironment/resources/mutations.xlsx
+++ b/PythonEnvironment/resources/mutations.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_Thesis\Scavenger\PythonEnvironment\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelprobst/Desktop/thesis/Scavenger/PythonEnvironment/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6877F6CA-7A80-4B80-81CD-B31FCA380729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Gen</t>
   </si>
@@ -36,40 +35,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Const</t>
-  </si>
-  <si>
-    <t>good levels, little variance</t>
-  </si>
-  <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>Adjust prob based on what events were done in excess and in shortage. Half chance to mutate into self</t>
-  </si>
-  <si>
-    <t>OK variance, a lot of walls (the event not included)</t>
-  </si>
-  <si>
-    <t>Good levels, almost no variance</t>
-  </si>
-  <si>
-    <t>Monster</t>
-  </si>
-  <si>
-    <t>High mutation probability. Same strategy as NeedMutate</t>
-  </si>
-  <si>
-    <t>Least Recently Used. mutate based on what events are desired. Reduce prob of tile that was recently mutated to, increase others.</t>
-  </si>
-  <si>
-    <t>Very good variance, levels look simple as well</t>
-  </si>
-  <si>
-    <t>Agent evets are long</t>
-  </si>
-  <si>
-    <t>Keep tile mutation probabilities constant, but skew at beginning based on what author desires</t>
   </si>
   <si>
     <t>AN</t>
@@ -78,16 +44,40 @@
     <t>RWU</t>
   </si>
   <si>
-    <t>Need</t>
+    <t>NB</t>
   </si>
   <si>
-    <t>RWU + MM Don’t allow tile to mutate into itself.</t>
+    <t>AN-MM</t>
+  </si>
+  <si>
+    <t>NB-MM</t>
+  </si>
+  <si>
+    <t>Excess events</t>
+  </si>
+  <si>
+    <t>abismal fitness, garbage levels</t>
+  </si>
+  <si>
+    <t>Good levels, good variance</t>
+  </si>
+  <si>
+    <t>AN-NB-RWU-MM</t>
+  </si>
+  <si>
+    <t>NB-RWU</t>
+  </si>
+  <si>
+    <t>poor variance. Low fitness</t>
+  </si>
+  <si>
+    <t>Good variance, good levels, but MM resulted in worse overall fitness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -137,7 +127,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -181,6 +171,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -217,9 +208,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.9770675286981707E-2"/>
+          <c:x val="0.0697706752869817"/>
           <c:y val="0.111036263111729"/>
-          <c:w val="0.79296273062296296"/>
+          <c:w val="0.792962730622963"/>
           <c:h val="0.773254861969355"/>
         </c:manualLayout>
       </c:layout>
@@ -265,11 +256,10 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+              <c:strCache>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -346,82 +336,13 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>Notes</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -430,160 +351,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>0.40151515151515099</c:v>
+                  <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34848484848484801</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47727272727272702</c:v>
+                  <c:v>0.566666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40151515151515099</c:v>
+                  <c:v>0.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52272727272727204</c:v>
+                  <c:v>0.566666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56818181818181801</c:v>
+                  <c:v>0.749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52272727272727204</c:v>
+                  <c:v>0.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45454545454545398</c:v>
+                  <c:v>0.683333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43181818181818099</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46212121212121199</c:v>
+                  <c:v>0.683333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57575757575757502</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67424242424242398</c:v>
+                  <c:v>0.633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.71969696969696895</c:v>
+                  <c:v>0.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.77272727272727204</c:v>
+                  <c:v>0.516666666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.83333333333333304</c:v>
+                  <c:v>0.733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.61363636363636298</c:v>
+                  <c:v>0.566666666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.67424242424242398</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.75</c:v>
+                  <c:v>0.383333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.67424242424242398</c:v>
+                  <c:v>0.566666666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.63636363636363602</c:v>
+                  <c:v>0.633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.63636363636363602</c:v>
+                  <c:v>0.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.65151515151515105</c:v>
+                  <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.54545454545454497</c:v>
+                  <c:v>0.733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.72727272727272696</c:v>
+                  <c:v>0.616666666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.79545454545454497</c:v>
+                  <c:v>0.516666666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.68181818181818099</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.74242424242424199</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.71212121212121204</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.63636363636363602</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.67424242424242398</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.69696969696969602</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.53787878787878696</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.52272727272727204</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.48484848484848397</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.57575757575757502</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.61363636363636298</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.53030303030303005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.56818181818181801</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.61363636363636298</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.51515151515151503</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.64393939393939303</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.54545454545454497</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.57575757575757502</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.48484848484848397</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.61363636363636298</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.56060606060606</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.68181818181818099</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.76515151515151503</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.69696969696969702</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.63636363636363602</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-34E1-4A86-BB4E-3659B33EE1F8}"/>
             </c:ext>
@@ -628,11 +477,10 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+              <c:strCache>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -709,82 +557,13 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>Notes</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -796,157 +575,85 @@
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56666666666666599</c:v>
+                  <c:v>0.466666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63333333333333297</c:v>
+                  <c:v>0.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73333333333333295</c:v>
+                  <c:v>0.433333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9</c:v>
+                  <c:v>0.216666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78333333333333299</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>0.216666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96666666666666601</c:v>
+                  <c:v>0.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>0.116666666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.98333333333333295</c:v>
+                  <c:v>0.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.91666666666666596</c:v>
+                  <c:v>0.433333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.749999999999999</c:v>
+                  <c:v>0.166666666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.81666666666666599</c:v>
+                  <c:v>0.183333333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.749999999999999</c:v>
+                  <c:v>0.116666666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64999999999999902</c:v>
+                  <c:v>0.133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.65</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.83333333333333304</c:v>
+                  <c:v>0.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.85</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9</c:v>
+                  <c:v>0.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.81666666666666599</c:v>
+                  <c:v>0.0666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.83333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.93333333333333302</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.86666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.91666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.88333333333333297</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.83333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.98333333333333295</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.91666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.88333333333333297</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.96666666666666601</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.91666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.98333333333333295</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.98333333333333295</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.91666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.86666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.85</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-34E1-4A86-BB4E-3659B33EE1F8}"/>
             </c:ext>
@@ -961,7 +668,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Need</c:v>
+                  <c:v>NB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -991,11 +698,10 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+              <c:strCache>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1072,82 +778,13 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>Notes</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1162,154 +799,82 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53333333333333299</c:v>
+                  <c:v>0.633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66666666666666596</c:v>
+                  <c:v>0.566666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51666666666666605</c:v>
+                  <c:v>0.466666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.483333333333333</c:v>
+                  <c:v>0.733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51666666666666605</c:v>
+                  <c:v>0.766666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68333333333333302</c:v>
+                  <c:v>0.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0.716666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45</c:v>
+                  <c:v>0.783333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66666666666666596</c:v>
+                  <c:v>0.633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.75</c:v>
+                  <c:v>0.816666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.71666666666666601</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68333333333333302</c:v>
+                  <c:v>0.966666666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.81666666666666599</c:v>
+                  <c:v>0.866666666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8</c:v>
+                  <c:v>0.766666666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.81666666666666599</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8</c:v>
+                  <c:v>0.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.65</c:v>
+                  <c:v>0.849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.66666666666666596</c:v>
+                  <c:v>0.716666666666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91666666666666596</c:v>
+                  <c:v>0.633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.81666666666666599</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.56666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.78333333333333299</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.73333333333333295</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.58333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.76666666666666605</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.56666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.46666666666666601</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.43333333333333302</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.56666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.63333333333333297</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.86666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.66666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.71666666666666601</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.64999999999999902</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.68333333333333302</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.68333333333333302</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.78333333333333299</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.76666666666666605</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.91666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.78333333333333299</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.76666666666666605</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.749999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.78333333333333299</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-34E1-4A86-BB4E-3659B33EE1F8}"/>
             </c:ext>
@@ -1324,7 +889,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Monster</c:v>
+                  <c:v>AN-MM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1354,11 +919,10 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+              <c:strCache>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1435,82 +999,13 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>Notes</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1522,157 +1017,85 @@
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56666666666666599</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53333333333333299</c:v>
+                  <c:v>0.516666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58333333333333304</c:v>
+                  <c:v>0.533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58333333333333304</c:v>
+                  <c:v>0.383333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46666666666666601</c:v>
+                  <c:v>0.249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38333333333333303</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61666666666666603</c:v>
+                  <c:v>0.366666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56666666666666599</c:v>
+                  <c:v>0.516666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83333333333333304</c:v>
+                  <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.65</c:v>
+                  <c:v>0.383333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.76666666666666605</c:v>
+                  <c:v>0.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65</c:v>
+                  <c:v>0.466666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64999999999999902</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.76666666666666605</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.9</c:v>
+                  <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.76666666666666605</c:v>
+                  <c:v>0.366666666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.83333333333333304</c:v>
+                  <c:v>0.533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>0.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.81666666666666599</c:v>
+                  <c:v>0.633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8</c:v>
+                  <c:v>0.383333333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.86666666666666603</c:v>
+                  <c:v>0.516666666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.83333333333333304</c:v>
+                  <c:v>0.566666666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.78333333333333299</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.76666666666666605</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.88333333333333297</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.86666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.88333333333333297</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.78333333333333299</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.81666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.73333333333333295</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.91666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.73333333333333295</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.81666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.91666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.91666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.91666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.96666666666666601</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.88333333333333297</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.76666666666666605</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.86666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.83333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.91666666666666596</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.79999999999999905</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.81666666666666599</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-34E1-4A86-BB4E-3659B33EE1F8}"/>
             </c:ext>
@@ -1687,7 +1110,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Const</c:v>
+                  <c:v>NB-MM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1717,11 +1140,10 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+              <c:strCache>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1798,82 +1220,13 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>Notes</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1885,161 +1238,446 @@
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53333333333333299</c:v>
+                  <c:v>0.616666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46666666666666601</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46666666666666601</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46666666666666601</c:v>
+                  <c:v>0.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68333333333333302</c:v>
+                  <c:v>0.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43333333333333302</c:v>
+                  <c:v>0.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45</c:v>
+                  <c:v>0.466666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56666666666666599</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.51666666666666605</c:v>
+                  <c:v>0.733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.63333333333333297</c:v>
+                  <c:v>0.716666666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.51666666666666605</c:v>
+                  <c:v>0.649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35</c:v>
+                  <c:v>0.633333333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46666666666666601</c:v>
+                  <c:v>0.866666666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.53333333333333299</c:v>
+                  <c:v>0.766666666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>0.766666666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.51666666666666605</c:v>
+                  <c:v>0.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.65</c:v>
+                  <c:v>0.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.63333333333333297</c:v>
+                  <c:v>0.749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.483333333333333</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.33333333333333298</c:v>
+                  <c:v>0.783333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.45</c:v>
+                  <c:v>0.716666666666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18333333333333299</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.28333333333333299</c:v>
+                  <c:v>0.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.53333333333333299</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.46666666666666601</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.233333333333333</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.41666666666666602</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.46666666666666601</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.46666666666666601</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.36666666666666597</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.53333333333333299</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.43333333333333302</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.31666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.54999999999999905</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.56666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.56666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.58333333333333304</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.53333333333333299</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.61666666666666603</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.53333333333333299</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.7</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-34E1-4A86-BB4E-3659B33EE1F8}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN-NB-RWU-MM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Notes</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NB-RWU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Notes</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.483333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.366666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.366666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.383333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.366666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.366666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.283333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.466666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.366666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.316666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.433333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.466666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.216666666666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.366666666666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.233333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2049,14 +1687,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1540889808"/>
-        <c:axId val="1540891584"/>
+        <c:axId val="1464169168"/>
+        <c:axId val="1467627152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1540889808"/>
+        <c:axId val="1464169168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="25.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2100,6 +1738,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2166,15 +1805,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540891584"/>
+        <c:crossAx val="1467627152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1540891584"/>
+        <c:axId val="1467627152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2218,6 +1857,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2284,7 +1924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540889808"/>
+        <c:crossAx val="1464169168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2298,6 +1938,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2940,7 +2581,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3223,41 +2864,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.40151515151515099</v>
+        <v>0.483333333333333</v>
       </c>
       <c r="C2">
         <v>0.483333333333333</v>
@@ -3271,1025 +2918,585 @@
       <c r="F2">
         <v>0.483333333333333</v>
       </c>
+      <c r="G2">
+        <v>0.483333333333333</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.34848484848484801</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.56666666666666599</v>
+        <v>0.46666666666666601</v>
       </c>
       <c r="D3">
         <v>0.45</v>
       </c>
       <c r="E3">
-        <v>0.56666666666666599</v>
+        <v>0.6</v>
       </c>
       <c r="F3">
-        <v>0.53333333333333299</v>
+        <v>0.61666666666666603</v>
+      </c>
+      <c r="G3">
+        <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.47727272727272702</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="C4">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="D4">
         <v>0.63333333333333297</v>
       </c>
-      <c r="D4">
-        <v>0.53333333333333299</v>
-      </c>
       <c r="E4">
-        <v>0.53333333333333299</v>
+        <v>0.51666666666666605</v>
       </c>
       <c r="F4">
-        <v>0.46666666666666601</v>
+        <v>0.7</v>
+      </c>
+      <c r="G4">
+        <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.40151515151515099</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="C5">
-        <v>0.73333333333333295</v>
+        <v>0.43333333333333302</v>
       </c>
       <c r="D5">
-        <v>0.66666666666666596</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="E5">
-        <v>0.58333333333333304</v>
+        <v>0.53333333333333299</v>
       </c>
       <c r="F5">
-        <v>0.46666666666666601</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.38333333333333303</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.52272727272727204</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="C6">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="D6">
-        <v>0.51666666666666605</v>
+        <v>0.46666666666666601</v>
       </c>
       <c r="E6">
-        <v>0.58333333333333304</v>
+        <v>0.38333333333333303</v>
       </c>
       <c r="F6">
-        <v>0.46666666666666601</v>
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="G6">
+        <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.56818181818181801</v>
+        <v>0.749999999999999</v>
       </c>
       <c r="C7">
-        <v>0.9</v>
+        <v>0.21666666666666601</v>
       </c>
       <c r="D7">
-        <v>0.483333333333333</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="E7">
-        <v>0.46666666666666601</v>
+        <v>0.249999999999999</v>
       </c>
       <c r="F7">
-        <v>0.68333333333333302</v>
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="G7">
+        <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.52272727272727204</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="C8">
-        <v>0.78333333333333299</v>
+        <v>0.2</v>
       </c>
       <c r="D8">
-        <v>0.51666666666666605</v>
+        <v>0.76666666666666605</v>
       </c>
       <c r="E8">
-        <v>0.38333333333333303</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F8">
-        <v>0.43333333333333302</v>
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="G8">
+        <v>0.28333333333333299</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.45454545454545398</v>
+        <v>0.68333333333333302</v>
       </c>
       <c r="C9">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="E9">
-        <v>0.61666666666666603</v>
+        <v>0.36666666666666597</v>
       </c>
       <c r="F9">
-        <v>0.45</v>
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="G9">
+        <v>0.46666666666666601</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.43181818181818099</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="D10">
-        <v>0.68333333333333302</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="E10">
-        <v>0.56666666666666599</v>
+        <v>0.51666666666666605</v>
       </c>
       <c r="F10">
-        <v>0.25</v>
+        <v>0.7</v>
+      </c>
+      <c r="G10">
+        <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.46212121212121199</v>
+        <v>0.68333333333333302</v>
       </c>
       <c r="C11">
-        <v>0.86666666666666603</v>
+        <v>0.21666666666666601</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.71666666666666601</v>
       </c>
       <c r="E11">
-        <v>0.83333333333333304</v>
+        <v>0.483333333333333</v>
       </c>
       <c r="F11">
-        <v>0.56666666666666599</v>
+        <v>0.65</v>
+      </c>
+      <c r="G11">
+        <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.57575757575757502</v>
+        <v>0.65</v>
       </c>
       <c r="C12">
-        <v>0.96666666666666601</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="D12">
-        <v>0.45</v>
+        <v>0.78333333333333299</v>
       </c>
       <c r="E12">
-        <v>0.65</v>
+        <v>0.38333333333333303</v>
       </c>
       <c r="F12">
-        <v>0.51666666666666605</v>
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="G12">
+        <v>0.31666666666666599</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.67424242424242398</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="C13">
-        <v>0.86666666666666603</v>
+        <v>0.116666666666666</v>
       </c>
       <c r="D13">
-        <v>0.66666666666666596</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="E13">
-        <v>0.76666666666666605</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="F13">
-        <v>0.63333333333333297</v>
+        <v>0.71666666666666601</v>
+      </c>
+      <c r="G13">
+        <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.71969696969696895</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="C14">
-        <v>0.98333333333333295</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="D14">
-        <v>0.75</v>
+        <v>0.81666666666666599</v>
       </c>
       <c r="E14">
-        <v>0.65</v>
+        <v>0.46666666666666601</v>
       </c>
       <c r="F14">
-        <v>0.51666666666666605</v>
+        <v>0.64999999999999902</v>
+      </c>
+      <c r="G14">
+        <v>0.43333333333333302</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.77272727272727204</v>
+        <v>0.51666666666666605</v>
       </c>
       <c r="C15">
-        <v>0.9</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D15">
-        <v>0.71666666666666601</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="E15">
-        <v>0.64999999999999902</v>
+        <v>0.4</v>
       </c>
       <c r="F15">
-        <v>0.35</v>
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="G15">
+        <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.83333333333333304</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="C16">
-        <v>0.91666666666666596</v>
+        <v>0.43333333333333302</v>
       </c>
       <c r="D16">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="E16">
-        <v>0.76666666666666605</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="F16">
-        <v>0.46666666666666601</v>
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="G16">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.61363636363636298</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="C17">
-        <v>0.749999999999999</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="D17">
-        <v>0.68333333333333302</v>
+        <v>0.96666666666666601</v>
       </c>
       <c r="E17">
-        <v>0.9</v>
+        <v>0.483333333333333</v>
       </c>
       <c r="F17">
-        <v>0.53333333333333299</v>
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="G17">
+        <v>0.46666666666666601</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.67424242424242398</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="C18">
-        <v>0.81666666666666599</v>
+        <v>0.18333333333333299</v>
       </c>
       <c r="D18">
-        <v>0.81666666666666599</v>
+        <v>0.86666666666666603</v>
       </c>
       <c r="E18">
+        <v>0.36666666666666597</v>
+      </c>
+      <c r="F18">
         <v>0.76666666666666605</v>
       </c>
-      <c r="F18">
-        <v>0.5</v>
+      <c r="G18">
+        <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.38333333333333303</v>
       </c>
       <c r="C19">
-        <v>0.749999999999999</v>
+        <v>0.116666666666666</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>0.76666666666666605</v>
       </c>
       <c r="E19">
-        <v>0.83333333333333304</v>
+        <v>0.53333333333333299</v>
       </c>
       <c r="F19">
-        <v>0.51666666666666605</v>
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G19">
+        <v>0.133333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.67424242424242398</v>
+        <v>0.56666666666666599</v>
       </c>
       <c r="C20">
-        <v>0.64999999999999902</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="D20">
-        <v>0.81666666666666599</v>
+        <v>0.85</v>
       </c>
       <c r="E20">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="F20">
-        <v>0.65</v>
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G20">
+        <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.63636363636363602</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="C21">
-        <v>0.65</v>
+        <v>0.05</v>
       </c>
       <c r="D21">
         <v>0.85</v>
       </c>
       <c r="E21">
-        <v>0.86666666666666603</v>
+        <v>0.41666666666666602</v>
       </c>
       <c r="F21">
-        <v>0.63333333333333297</v>
+        <v>0.749999999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.63636363636363602</v>
+        <v>0.41666666666666602</v>
       </c>
       <c r="C22">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D22">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D22">
-        <v>0.8</v>
-      </c>
       <c r="E22">
-        <v>0.86666666666666603</v>
+        <v>0.45</v>
       </c>
       <c r="F22">
-        <v>0.483333333333333</v>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="G22">
+        <v>9.9999999999999895E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.65151515151515105</v>
+        <v>0.483333333333333</v>
       </c>
       <c r="C23">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.65</v>
+        <v>0.84999999999999898</v>
       </c>
       <c r="E23">
-        <v>0.81666666666666599</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="F23">
-        <v>0.33333333333333298</v>
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="G23">
+        <v>0.133333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.54545454545454497</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="C24">
-        <v>0.85</v>
+        <v>0.1</v>
       </c>
       <c r="D24">
-        <v>0.66666666666666596</v>
+        <v>0.71666666666666601</v>
       </c>
       <c r="E24">
-        <v>0.8</v>
+        <v>0.38333333333333303</v>
       </c>
       <c r="F24">
-        <v>0.45</v>
+        <v>0.71666666666666601</v>
+      </c>
+      <c r="G24">
+        <v>0.21666666666666601</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.72727272727272696</v>
+        <v>0.61666666666666603</v>
       </c>
       <c r="C25">
-        <v>0.9</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="D25">
-        <v>0.91666666666666596</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="E25">
-        <v>0.86666666666666603</v>
+        <v>0.51666666666666605</v>
       </c>
       <c r="F25">
-        <v>0.18333333333333299</v>
+        <v>0.85</v>
+      </c>
+      <c r="G25">
+        <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.79545454545454497</v>
+        <v>0.51666666666666605</v>
       </c>
       <c r="C26">
-        <v>0.81666666666666599</v>
+        <v>6.6666666666666596E-2</v>
       </c>
       <c r="D26">
-        <v>0.81666666666666599</v>
+        <v>0.7</v>
       </c>
       <c r="E26">
+        <v>0.56666666666666599</v>
+      </c>
+      <c r="F26">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F26">
-        <v>0.28333333333333299</v>
+      <c r="G26">
+        <v>0.233333333333333</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>0.68181818181818099</v>
-      </c>
-      <c r="C27">
-        <v>0.9</v>
-      </c>
-      <c r="D27">
-        <v>0.56666666666666599</v>
-      </c>
-      <c r="E27">
-        <v>0.8</v>
-      </c>
-      <c r="F27">
-        <v>0.53333333333333299</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>0.74242424242424199</v>
-      </c>
-      <c r="C28">
-        <v>0.95</v>
-      </c>
-      <c r="D28">
-        <v>0.78333333333333299</v>
-      </c>
-      <c r="E28">
-        <v>0.78333333333333299</v>
-      </c>
-      <c r="F28">
-        <v>0.46666666666666601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>0.71212121212121204</v>
-      </c>
-      <c r="C29">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="D29">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="E29">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="F29">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="C30">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="D30">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="E30">
-        <v>0.88333333333333297</v>
-      </c>
-      <c r="F30">
-        <v>0.233333333333333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>0.67424242424242398</v>
-      </c>
-      <c r="C31">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="D31">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="E31">
-        <v>0.8</v>
-      </c>
-      <c r="F31">
-        <v>0.41666666666666602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>0.69696969696969602</v>
-      </c>
-      <c r="C32">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="D32">
-        <v>0.56666666666666599</v>
-      </c>
-      <c r="E32">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="F32">
-        <v>0.46666666666666601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>0.53787878787878696</v>
-      </c>
-      <c r="C33">
-        <v>0.88333333333333297</v>
-      </c>
-      <c r="D33">
-        <v>0.46666666666666601</v>
-      </c>
-      <c r="E33">
-        <v>0.88333333333333297</v>
-      </c>
-      <c r="F33">
-        <v>0.46666666666666601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>0.52272727272727204</v>
-      </c>
-      <c r="C34">
-        <v>0.85</v>
-      </c>
-      <c r="D34">
-        <v>0.43333333333333302</v>
-      </c>
-      <c r="E34">
-        <v>0.78333333333333299</v>
-      </c>
-      <c r="F34">
-        <v>0.36666666666666597</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>0.48484848484848397</v>
-      </c>
-      <c r="C35">
-        <v>0.85</v>
-      </c>
-      <c r="D35">
-        <v>0.4</v>
-      </c>
-      <c r="E35">
-        <v>0.81666666666666599</v>
-      </c>
-      <c r="F35">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>0.57575757575757502</v>
-      </c>
-      <c r="C36">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="D36">
-        <v>0.56666666666666599</v>
-      </c>
-      <c r="E36">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="F36">
-        <v>0.53333333333333299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>0.61363636363636298</v>
-      </c>
-      <c r="C37">
-        <v>0.9</v>
-      </c>
-      <c r="D37">
-        <v>0.63333333333333297</v>
-      </c>
-      <c r="E37">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="F37">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>0.53030303030303005</v>
-      </c>
-      <c r="C38">
-        <v>0.9</v>
-      </c>
-      <c r="D38">
-        <v>0.65</v>
-      </c>
-      <c r="E38">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="F38">
-        <v>0.43333333333333302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>0.56818181818181801</v>
-      </c>
-      <c r="C39">
-        <v>0.9</v>
-      </c>
-      <c r="D39">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="E39">
-        <v>0.81666666666666599</v>
-      </c>
-      <c r="F39">
-        <v>0.31666666666666599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>0.61363636363636298</v>
-      </c>
-      <c r="C40">
-        <v>0.98333333333333295</v>
-      </c>
-      <c r="D40">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="E40">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="F40">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>0.51515151515151503</v>
-      </c>
-      <c r="C41">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="D41">
-        <v>0.71666666666666601</v>
-      </c>
-      <c r="E41">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="F41">
-        <v>0.54999999999999905</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0.64393939393939303</v>
-      </c>
-      <c r="C42">
-        <v>0.88333333333333297</v>
-      </c>
-      <c r="D42">
-        <v>0.64999999999999902</v>
-      </c>
-      <c r="E42">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="F42">
-        <v>0.56666666666666599</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="C43">
-        <v>0.96666666666666601</v>
-      </c>
-      <c r="D43">
-        <v>0.68333333333333302</v>
-      </c>
-      <c r="E43">
-        <v>0.96666666666666601</v>
-      </c>
-      <c r="F43">
-        <v>0.56666666666666599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>0.57575757575757502</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>0.68333333333333302</v>
-      </c>
-      <c r="E44">
-        <v>0.7</v>
-      </c>
-      <c r="F44">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>0.48484848484848397</v>
-      </c>
-      <c r="C45">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="D45">
-        <v>0.78333333333333299</v>
-      </c>
-      <c r="E45">
-        <v>0.88333333333333297</v>
-      </c>
-      <c r="F45">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>0.61363636363636298</v>
-      </c>
-      <c r="C46">
-        <v>0.98333333333333295</v>
-      </c>
-      <c r="D46">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="E46">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="F46">
-        <v>0.53333333333333299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>0.56060606060606</v>
-      </c>
-      <c r="C47">
-        <v>0.98333333333333295</v>
-      </c>
-      <c r="D47">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="E47">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="F47">
-        <v>0.61666666666666603</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>0.68181818181818099</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0.78333333333333299</v>
-      </c>
-      <c r="E48">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="F48">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>0.76515151515151503</v>
-      </c>
-      <c r="C49">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="D49">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="E49">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="F49">
-        <v>0.53333333333333299</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>0.69696969696969702</v>
-      </c>
-      <c r="C50">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="D50">
-        <v>0.749999999999999</v>
-      </c>
-      <c r="E50">
-        <v>0.79999999999999905</v>
-      </c>
-      <c r="F50">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="C51">
-        <v>0.85</v>
-      </c>
-      <c r="D51">
-        <v>0.78333333333333299</v>
-      </c>
-      <c r="E51">
-        <v>0.81666666666666599</v>
-      </c>
-      <c r="F51">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
